--- a/src/test/resources/SearchData.xlsx
+++ b/src/test/resources/SearchData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\PSLMiniProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80720BC-C58B-4B47-9050-07D99BB67E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92643B20-3AF0-4120-864C-3B769DC1EC26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Search" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>SearchQueries</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Search Query</t>
+  </si>
+  <si>
+    <t>Product Price</t>
   </si>
   <si>
     <t>iPhone</t>
@@ -42,12 +51,15 @@
     <t>asjdnjasndjbnajsdbjadbjasbndjasbnjdbn</t>
   </si>
   <si>
-    <t>Expected Product Names</t>
+    <t>iPhone is a revolutionary new mobile phone that allows you to make a call by simply tapping a name o..</t>
   </si>
   <si>
     <t>iMac</t>
   </si>
   <si>
+    <t>Just when you thought iMac had everything, now there´s even more. More powerful Intel Core 2 Duo pro..</t>
+  </si>
+  <si>
     <t>MacBook</t>
   </si>
   <si>
@@ -57,12 +69,6 @@
     <t>MacBook Pro</t>
   </si>
   <si>
-    <t>Expected product descriptions</t>
-  </si>
-  <si>
-    <t>Just when you thought iMac had everything, now there´s even more. More powerful Intel Core 2 Duo pro..</t>
-  </si>
-  <si>
     <t>Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..</t>
   </si>
   <si>
@@ -72,21 +78,35 @@
     <t>Latest Intel mobile architecture Powered by the most advanced mobile processors from Intel, ..</t>
   </si>
   <si>
-    <t>Expected product prices($)</t>
-  </si>
-  <si>
-    <t>iPhone is a revolutionary new mobile phone that allows you to make a call by simply tapping a name o..</t>
+    <t>$123.20</t>
+  </si>
+  <si>
+    <t>$122.00</t>
+  </si>
+  <si>
+    <t>$602.00</t>
+  </si>
+  <si>
+    <t>$1,202.00</t>
+  </si>
+  <si>
+    <t>$2,000.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,11 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,97 +427,96 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3">
-        <v>123.2</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>122</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3">
-        <v>602</v>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1202</v>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2000</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
